--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1176496.761892231</v>
+        <v>-1179177.624955639</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>304.5788812885917</v>
+        <v>65.83152770305799</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>363.3484850307946</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>212.3210433559003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.09164865844555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>228.3892122294829</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>233.064870985275</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>281.1467950393366</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.2197573586104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1102,22 +1102,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>72.55533035091575</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>238.9031699608876</v>
       </c>
       <c r="E8" t="n">
-        <v>194.131777979928</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.3355214916155</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>211.2911401485765</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089709</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>216.8180354051593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>90.69284018412959</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>280.2484573102189</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>23.62554568141313</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>65.78783178799263</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>26.27614159852266</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>105.9893107373036</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>80.33989744908955</v>
+        <v>140.575894358866</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,7 +3718,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
         <v>262.2383508445512</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>725.9208939613227</v>
+        <v>1113.627677512999</v>
       </c>
       <c r="C2" t="n">
-        <v>418.2654583162805</v>
+        <v>1047.131184883647</v>
       </c>
       <c r="D2" t="n">
-        <v>418.2654583162805</v>
+        <v>1047.131184883647</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>1047.131184883647</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>636.1452800940397</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.520734025444</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410.7888666972415</v>
+        <v>1443.156192580112</v>
       </c>
       <c r="C4" t="n">
-        <v>410.7888666972415</v>
+        <v>1443.156192580112</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1293.039553167776</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1145.126459585383</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2135.014406590842</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387889</v>
+        <v>2135.014406590842</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387889</v>
+        <v>1845.597236553882</v>
       </c>
       <c r="X4" t="n">
-        <v>631.5814458407716</v>
+        <v>1845.597236553882</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.7888666972415</v>
+        <v>1624.804657410352</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.692669339133</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.730152398721</v>
+        <v>712.1089938151597</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>353.8432952084092</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.292509403255</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844936</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580.4218721597731</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,10 +4720,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1263.945753274268</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>1263.945753274268</v>
       </c>
       <c r="W7" t="n">
-        <v>990.0598878880302</v>
+        <v>974.5285832373073</v>
       </c>
       <c r="X7" t="n">
-        <v>762.0703369900128</v>
+        <v>974.5285832373073</v>
       </c>
       <c r="Y7" t="n">
-        <v>762.0703369900128</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.344648689697</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="C8" t="n">
-        <v>636.3821317492852</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="D8" t="n">
-        <v>636.3821317492852</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.483980665509</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1005.344648689697</v>
+        <v>1505.042027525392</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1352.031492328577</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1739.316620925522</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2071.387056101684</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>813.841548125043</v>
+        <v>684.8214259065184</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1423.020725985027</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269232</v>
+        <v>1423.020725985027</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.467639269232</v>
+        <v>1423.020725985027</v>
       </c>
       <c r="W10" t="n">
-        <v>1413.467639269232</v>
+        <v>1133.603555948066</v>
       </c>
       <c r="X10" t="n">
-        <v>1185.478088371215</v>
+        <v>905.6140050500485</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.685509227685</v>
+        <v>684.8214259065184</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>148.6919058973629</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768874</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>267.5122958789771</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>267.5122958789771</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579365</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373478</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570412</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246296</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967227</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>551.263652184387</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.3579772739771</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
-        <v>231.2582814363239</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179986</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780643</v>
+        <v>105.1672460959142</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>299.4413640679496</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>18.5818850414672</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>57.83794189171772</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.60187266209429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>6.274541026372106</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.64613085857654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>225.8615017253053</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>24.81829093850928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.4161395899847</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>205.8445769401546</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1045683.563321677</v>
+        <v>1045683.563321676</v>
       </c>
     </row>
     <row r="3">
@@ -26320,28 +26320,28 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="F2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302515</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194635</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960684</v>
+        <v>50904.45160960674</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719611</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481319</v>
       </c>
       <c r="M4" t="n">
         <v>15498.22772481314</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="O4" t="n">
         <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1106267.080820482</v>
+        <v>-1106627.163836199</v>
       </c>
       <c r="C6" t="n">
-        <v>-41317.23776712542</v>
+        <v>-41317.23776712545</v>
       </c>
       <c r="D6" t="n">
-        <v>-41317.23776712548</v>
+        <v>-41317.2377671257</v>
       </c>
       <c r="E6" t="n">
-        <v>-434507.3549799214</v>
+        <v>-434542.0929053568</v>
       </c>
       <c r="F6" t="n">
-        <v>72978.08664462461</v>
+        <v>72943.34871918868</v>
       </c>
       <c r="G6" t="n">
-        <v>72978.08664462458</v>
+        <v>72943.34871918922</v>
       </c>
       <c r="H6" t="n">
-        <v>72978.08664462455</v>
+        <v>72943.34871918884</v>
       </c>
       <c r="I6" t="n">
-        <v>72978.08664462452</v>
+        <v>72943.34871918897</v>
       </c>
       <c r="J6" t="n">
-        <v>-94627.09116535807</v>
+        <v>-94661.82909079354</v>
       </c>
       <c r="K6" t="n">
-        <v>72978.08664462461</v>
+        <v>72943.34871918883</v>
       </c>
       <c r="L6" t="n">
-        <v>46644.33664710325</v>
+        <v>46644.33664710318</v>
       </c>
       <c r="M6" t="n">
         <v>-66535.23908819164</v>
       </c>
       <c r="N6" t="n">
+        <v>66072.05464073503</v>
+      </c>
+      <c r="O6" t="n">
+        <v>66072.05464073512</v>
+      </c>
+      <c r="P6" t="n">
         <v>66072.05464073509</v>
-      </c>
-      <c r="O6" t="n">
-        <v>66072.05464073506</v>
-      </c>
-      <c r="P6" t="n">
-        <v>66072.05464073512</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>60.69401048241582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>199.2266594170537</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>84.52382435976681</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>121.6181706354079</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>100.7835750329252</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>44.0270637400174</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.6718237702848</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>115.7798716597953</v>
       </c>
       <c r="E8" t="n">
-        <v>187.7985920923338</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.49645869032176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>9.457555848635479</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>176.8386996048316</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35015,13 +35015,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>528.938642074174</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>418.4229873015965</v>
+        <v>354.8467752194465</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191329</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
